--- a/data/trans_dic/P29A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +524,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +545,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>64,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>66,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>74,15%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>42,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43,1%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,54; 100,0</t>
+          <t>54,49; 63,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,58; 86,73</t>
+          <t>58,89; 69,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100</t>
+          <t>61,34; 70,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>68,02; 79,24</t>
+          <t>51,51; 60,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>33,87; 44,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 82,61</t>
+          <t>36,52; 48,15</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 48,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32,24; 39,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47,55; 55,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>50,65; 58,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52,32; 59,86</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43,87; 50,01</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>59,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>48,6%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41,62%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,82; 100,0</t>
+          <t>53,58; 64,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,89; 86,64</t>
+          <t>53,09; 62,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,02; 99,49</t>
+          <t>56,78; 67,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,6; 75,64</t>
+          <t>42,13; 51,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,86; 99,57</t>
+          <t>33,09; 43,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,88; 80,31</t>
+          <t>31,76; 43,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>43,39; 54,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31,06; 39,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44,79; 52,26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>45,15; 52,79</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51,96; 59,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38,62; 45,26</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,12%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,11; 99,68</t>
+          <t>56,09; 64,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,18; 85,31</t>
+          <t>53,38; 61,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,85; 100,0</t>
+          <t>57,63; 66,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,99; 76,2</t>
+          <t>12,43; 51,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,91; 99,45</t>
+          <t>27,11; 41,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 82,4</t>
+          <t>20,18; 31,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24,37; 39,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 29,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49,8; 57,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44,17; 51,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50,91; 58,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,76; 43,93</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>34,15%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>42,47%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42,05%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>46,08%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>97,39; 99,35</t>
+          <t>48,38; 54,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>80,74; 87,61</t>
+          <t>49,83; 55,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,05; 97,86</t>
+          <t>52,23; 58,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69,72; 94,29</t>
+          <t>45,9; 53,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,6; 98,63</t>
+          <t>22,62; 29,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,01; 90,69</t>
+          <t>22,96; 29,49</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30,82; 37,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26,36; 67,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39,7; 44,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 44,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>43,94; 48,94</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39,15; 61,44</t>
         </is>
       </c>
     </row>
@@ -921,32 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>58,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>97,57; 100,0</t>
+          <t>53,19; 63,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,09; 90,65</t>
+          <t>52,62; 61,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,8; 97,19</t>
+          <t>44,54; 52,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,97; 66,62</t>
+          <t>44,16; 53,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,43; 98,52</t>
+          <t>19,38; 26,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,14; 78,48</t>
+          <t>17,9; 24,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 26,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,66; 18,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33,01; 39,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,34; 37,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32,58; 38,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 30,75</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,44%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>90,22; 97,83</t>
+          <t>39,55; 51,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>68,48; 93,33</t>
+          <t>44,28; 56,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,62</t>
+          <t>46,69; 59,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,04; 70,74</t>
+          <t>29,3; 51,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,36; 98,69</t>
+          <t>13,84; 17,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,39; 77,3</t>
+          <t>18,48; 23,68</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20,14; 25,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 19,17</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 23,38</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24,15; 28,97</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>26,59; 31,46</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 25,9</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,73%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36,74%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,17</t>
+          <t>53,42; 56,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,99; 84,66</t>
+          <t>54,4; 57,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,04; 98,07</t>
+          <t>55,22; 58,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60,74; 81,31</t>
+          <t>36,03; 50,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>97,58; 98,61</t>
+          <t>23,13; 25,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,09; 79,22</t>
+          <t>24,29; 27,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>29,06; 32,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,32; 42,66</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38,23; 40,74</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39,29; 41,72</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>42,35; 44,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33,1; 42,63</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1634,1643 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumió bebidas alcohólicas en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>273669</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>268399</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>276460</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>283735</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>119772</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>130983</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>143977</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>162744</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>393441</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>399382</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>420437</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>446479</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>251980; 295437</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>246727; 289833</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>256277; 296065</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>260248; 306152</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>103124; 135940</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>112193; 147927</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>125182; 161560</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>144281; 178939</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>364665; 422317</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>367810; 425957</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>393424; 450113</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>417969; 476458</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>216036</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>234354</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>228362</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>212965</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>139648</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>121736</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>178232</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>133901</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>355684</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>356090</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>406593</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>346866</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>195214; 234197</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>213764; 253550</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>208656; 248980</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>190511; 233748</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>121586; 159286</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>103893; 141566</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>157339; 198070</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>118422; 150074</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>327770; 382418</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>329461; 385214</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>379376; 434446</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>321926; 377193</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>320503</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>340524</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>312754</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>210884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56440</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>64283</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51560</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40333</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>376943</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>404807</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>364314</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>251217</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>299548; 344219</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>316312; 365662</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>289962; 333904</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82989; 341003</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45488; 69868</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50622; 78189</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39504; 63768</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32292; 49523</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>349504; 405997</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>372568; 433011</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>338650; 390751</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>106439; 366325</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>625338</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>583829</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>612257</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>509939</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>182864</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>194369</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>279261</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>414766</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>808202</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>778198</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>891518</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>924705</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>591498; 660863</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>550298; 617659</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>580087; 646949</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>472952; 547191</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>160713; 208965</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>171366; 220104</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>252004; 304882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>257414; 658884</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>767316; 854725</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>732704; 821081</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>847356; 943765</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>785700; 1233061</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>203905</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>278241</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>294237</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>231835</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>156304</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>172525</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>130663</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>331904</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>434545</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>466762</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>362498</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>185434; 222608</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>257114; 299555</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>267445; 317692</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>209005; 254329</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>109556; 147809</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>134797; 182262</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>147334; 195656</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97644; 156451</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>301711; 362391</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>401545; 470003</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>432884; 506108</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>292210; 403020</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>132648</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>131541</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>148834</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>94860</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>197133</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>227230</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>242253</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>122080</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>329780</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>358771</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>391086</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>216940</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>116361; 150582</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>116337; 147740</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>130885; 166285</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>70457; 124546</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>172189; 222752</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>202171; 259122</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>215597; 270493</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>101513; 145585</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>296767; 359515</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>327743; 393063</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>359210; 425029</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>184813; 258981</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1772</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1180</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2546</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2551</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1772099</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1836888</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1872902</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1544218</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>823855</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>894904</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1067808</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1004487</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2595954</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2731792</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2940711</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2548705</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1723564; 1830907</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1778848; 1894663</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1810969; 1926934</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1213972; 1688376</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>776980; 872060</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>844897; 950267</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1009775; 1122062</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>832219; 1522179</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2517316; 2683147</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2651416; 2815308</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2860487; 3031962</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2296421; 2957516</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P29A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
